--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p1-5/p1-5_analysis.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p1-5/p1-5_analysis.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J902"/>
+  <dimension ref="A1:J901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F725" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J725" t="n">
         <v>1</v>
@@ -23728,7 +23728,7 @@
         <v>1</v>
       </c>
       <c r="F727" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -23737,7 +23737,7 @@
         <v>1</v>
       </c>
       <c r="I727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J727" t="n">
         <v>1</v>
@@ -23760,7 +23760,7 @@
         <v>0</v>
       </c>
       <c r="F728" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G728" t="n">
         <v>0</v>
@@ -23769,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J728" t="n">
         <v>1</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="F731" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J731" t="n">
         <v>1</v>
@@ -23920,7 +23920,7 @@
         <v>1</v>
       </c>
       <c r="F733" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J733" t="n">
         <v>0</v>
@@ -24080,7 +24080,7 @@
         <v>0</v>
       </c>
       <c r="F738" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -24089,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J738" t="n">
         <v>1</v>
@@ -24112,7 +24112,7 @@
         <v>1</v>
       </c>
       <c r="F739" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G739" t="n">
         <v>1</v>
@@ -24121,7 +24121,7 @@
         <v>1</v>
       </c>
       <c r="I739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J739" t="n">
         <v>1</v>
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
       <c r="F745" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -24313,7 +24313,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J745" t="n">
         <v>1</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="F749" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G749" t="n">
         <v>1</v>
@@ -24441,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J749" t="n">
         <v>1</v>
@@ -24528,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="F752" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G752" t="n">
         <v>0</v>
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J752" t="n">
         <v>1</v>
@@ -24675,6 +24675,9 @@
       <c r="A757" t="n">
         <v>5</v>
       </c>
+      <c r="B757" t="n">
+        <v>36</v>
+      </c>
       <c r="C757" t="n">
         <v>-15</v>
       </c>
@@ -24684,11 +24687,20 @@
       <c r="E757" t="n">
         <v>0</v>
       </c>
+      <c r="F757" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G757" t="n">
+        <v>0</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
       <c r="I757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -24696,7 +24708,7 @@
         <v>5</v>
       </c>
       <c r="B758" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C758" t="n">
         <v>9</v>
@@ -24711,7 +24723,7 @@
         <v>1</v>
       </c>
       <c r="G758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H758" t="n">
         <v>0</v>
@@ -24728,7 +24740,7 @@
         <v>5</v>
       </c>
       <c r="B759" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C759" t="n">
         <v>-15</v>
@@ -24740,19 +24752,19 @@
         <v>1</v>
       </c>
       <c r="F759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
       </c>
       <c r="J759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -24760,7 +24772,7 @@
         <v>5</v>
       </c>
       <c r="B760" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C760" t="n">
         <v>0</v>
@@ -24772,19 +24784,19 @@
         <v>0</v>
       </c>
       <c r="F760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -24792,7 +24804,7 @@
         <v>5</v>
       </c>
       <c r="B761" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C761" t="n">
         <v>9</v>
@@ -24804,7 +24816,7 @@
         <v>0</v>
       </c>
       <c r="F761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -24813,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J761" t="n">
         <v>1</v>
@@ -24824,7 +24836,7 @@
         <v>5</v>
       </c>
       <c r="B762" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C762" t="n">
         <v>9</v>
@@ -24842,13 +24854,13 @@
         <v>1</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>1</v>
       </c>
       <c r="J762" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
@@ -24856,7 +24868,7 @@
         <v>5</v>
       </c>
       <c r="B763" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C763" t="n">
         <v>0</v>
@@ -24868,7 +24880,7 @@
         <v>1</v>
       </c>
       <c r="F763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -24877,7 +24889,7 @@
         <v>1</v>
       </c>
       <c r="I763" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J763" t="n">
         <v>1</v>
@@ -24888,7 +24900,7 @@
         <v>5</v>
       </c>
       <c r="B764" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C764" t="n">
         <v>9</v>
@@ -24900,7 +24912,7 @@
         <v>1</v>
       </c>
       <c r="F764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G764" t="n">
         <v>1</v>
@@ -24909,7 +24921,7 @@
         <v>1</v>
       </c>
       <c r="I764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J764" t="n">
         <v>1</v>
@@ -24920,7 +24932,7 @@
         <v>5</v>
       </c>
       <c r="B765" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C765" t="n">
         <v>0</v>
@@ -24932,19 +24944,19 @@
         <v>0</v>
       </c>
       <c r="F765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -24952,7 +24964,7 @@
         <v>5</v>
       </c>
       <c r="B766" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C766" t="n">
         <v>-15</v>
@@ -24964,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="F766" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G766" t="n">
         <v>1</v>
@@ -24973,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J766" t="n">
         <v>1</v>
@@ -24984,7 +24996,7 @@
         <v>5</v>
       </c>
       <c r="B767" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C767" t="n">
         <v>9</v>
@@ -25002,13 +25014,13 @@
         <v>1</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>1</v>
       </c>
       <c r="J767" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -25016,7 +25028,7 @@
         <v>5</v>
       </c>
       <c r="B768" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C768" t="n">
         <v>9</v>
@@ -25031,7 +25043,7 @@
         <v>1</v>
       </c>
       <c r="G768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H768" t="n">
         <v>1</v>
@@ -25048,7 +25060,7 @@
         <v>5</v>
       </c>
       <c r="B769" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C769" t="n">
         <v>0</v>
@@ -25060,16 +25072,16 @@
         <v>1</v>
       </c>
       <c r="F769" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H769" t="n">
         <v>1</v>
       </c>
       <c r="I769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J769" t="n">
         <v>1</v>
@@ -25080,7 +25092,7 @@
         <v>5</v>
       </c>
       <c r="B770" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C770" t="n">
         <v>-15</v>
@@ -25092,7 +25104,7 @@
         <v>1</v>
       </c>
       <c r="F770" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
@@ -25101,7 +25113,7 @@
         <v>1</v>
       </c>
       <c r="I770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J770" t="n">
         <v>1</v>
@@ -25112,7 +25124,7 @@
         <v>5</v>
       </c>
       <c r="B771" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C771" t="n">
         <v>9</v>
@@ -25144,7 +25156,7 @@
         <v>5</v>
       </c>
       <c r="B772" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C772" t="n">
         <v>-15</v>
@@ -25156,19 +25168,19 @@
         <v>0</v>
       </c>
       <c r="F772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G772" t="n">
         <v>1</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772" t="n">
         <v>0</v>
       </c>
       <c r="J772" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -25176,7 +25188,7 @@
         <v>5</v>
       </c>
       <c r="B773" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C773" t="n">
         <v>0</v>
@@ -25188,19 +25200,19 @@
         <v>1</v>
       </c>
       <c r="F773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G773" t="n">
         <v>1</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I773" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J773" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -25208,7 +25220,7 @@
         <v>5</v>
       </c>
       <c r="B774" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C774" t="n">
         <v>-15</v>
@@ -25220,19 +25232,19 @@
         <v>0</v>
       </c>
       <c r="F774" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J774" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -25240,7 +25252,7 @@
         <v>5</v>
       </c>
       <c r="B775" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C775" t="n">
         <v>-15</v>
@@ -25252,16 +25264,16 @@
         <v>0</v>
       </c>
       <c r="F775" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G775" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H775" t="n">
         <v>0</v>
       </c>
       <c r="I775" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J775" t="n">
         <v>1</v>
@@ -25272,7 +25284,7 @@
         <v>5</v>
       </c>
       <c r="B776" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C776" t="n">
         <v>-15</v>
@@ -25284,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="F776" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -25293,7 +25305,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J776" t="n">
         <v>1</v>
@@ -25304,7 +25316,7 @@
         <v>5</v>
       </c>
       <c r="B777" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C777" t="n">
         <v>-15</v>
@@ -25316,19 +25328,19 @@
         <v>1</v>
       </c>
       <c r="F777" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
@@ -25336,7 +25348,7 @@
         <v>5</v>
       </c>
       <c r="B778" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C778" t="n">
         <v>-15</v>
@@ -25348,16 +25360,16 @@
         <v>1</v>
       </c>
       <c r="F778" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H778" t="n">
         <v>1</v>
       </c>
       <c r="I778" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J778" t="n">
         <v>1</v>
@@ -25368,7 +25380,7 @@
         <v>5</v>
       </c>
       <c r="B779" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C779" t="n">
         <v>0</v>
@@ -25380,7 +25392,7 @@
         <v>1</v>
       </c>
       <c r="F779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G779" t="n">
         <v>0</v>
@@ -25389,7 +25401,7 @@
         <v>1</v>
       </c>
       <c r="I779" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J779" t="n">
         <v>1</v>
@@ -25400,7 +25412,7 @@
         <v>5</v>
       </c>
       <c r="B780" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C780" t="n">
         <v>9</v>
@@ -25412,19 +25424,19 @@
         <v>0</v>
       </c>
       <c r="F780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -25432,7 +25444,7 @@
         <v>5</v>
       </c>
       <c r="B781" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C781" t="n">
         <v>9</v>
@@ -25464,7 +25476,7 @@
         <v>5</v>
       </c>
       <c r="B782" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C782" t="n">
         <v>-15</v>
@@ -25476,7 +25488,7 @@
         <v>0</v>
       </c>
       <c r="F782" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -25485,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J782" t="n">
         <v>1</v>
@@ -25496,7 +25508,7 @@
         <v>5</v>
       </c>
       <c r="B783" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C783" t="n">
         <v>-15</v>
@@ -25508,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="F783" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -25517,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J783" t="n">
         <v>1</v>
@@ -25528,7 +25540,7 @@
         <v>5</v>
       </c>
       <c r="B784" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C784" t="n">
         <v>-15</v>
@@ -25540,19 +25552,19 @@
         <v>1</v>
       </c>
       <c r="F784" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -25560,7 +25572,7 @@
         <v>5</v>
       </c>
       <c r="B785" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C785" t="n">
         <v>9</v>
@@ -25575,16 +25587,16 @@
         <v>1</v>
       </c>
       <c r="G785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="n">
         <v>1</v>
       </c>
       <c r="J785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -25592,7 +25604,7 @@
         <v>5</v>
       </c>
       <c r="B786" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C786" t="n">
         <v>0</v>
@@ -25604,19 +25616,19 @@
         <v>1</v>
       </c>
       <c r="F786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G786" t="n">
         <v>0</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -25624,7 +25636,7 @@
         <v>5</v>
       </c>
       <c r="B787" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C787" t="n">
         <v>0</v>
@@ -25639,16 +25651,16 @@
         <v>0</v>
       </c>
       <c r="G787" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="n">
         <v>1</v>
       </c>
       <c r="J787" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -25656,7 +25668,7 @@
         <v>5</v>
       </c>
       <c r="B788" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C788" t="n">
         <v>0</v>
@@ -25674,13 +25686,13 @@
         <v>1</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I788" t="n">
         <v>1</v>
       </c>
       <c r="J788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -25688,7 +25700,7 @@
         <v>5</v>
       </c>
       <c r="B789" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C789" t="n">
         <v>9</v>
@@ -25700,16 +25712,16 @@
         <v>1</v>
       </c>
       <c r="F789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H789" t="n">
         <v>1</v>
       </c>
       <c r="I789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J789" t="n">
         <v>1</v>
@@ -25720,7 +25732,7 @@
         <v>5</v>
       </c>
       <c r="B790" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C790" t="n">
         <v>9</v>
@@ -25735,7 +25747,7 @@
         <v>1</v>
       </c>
       <c r="G790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H790" t="n">
         <v>1</v>
@@ -25752,7 +25764,7 @@
         <v>5</v>
       </c>
       <c r="B791" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C791" t="n">
         <v>0</v>
@@ -25764,7 +25776,7 @@
         <v>1</v>
       </c>
       <c r="F791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G791" t="n">
         <v>1</v>
@@ -25773,7 +25785,7 @@
         <v>1</v>
       </c>
       <c r="I791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J791" t="n">
         <v>1</v>
@@ -25784,7 +25796,7 @@
         <v>5</v>
       </c>
       <c r="B792" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C792" t="n">
         <v>0</v>
@@ -25802,13 +25814,13 @@
         <v>1</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>1</v>
       </c>
       <c r="J792" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -25816,7 +25828,7 @@
         <v>5</v>
       </c>
       <c r="B793" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C793" t="n">
         <v>9</v>
@@ -25828,16 +25840,16 @@
         <v>0</v>
       </c>
       <c r="F793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H793" t="n">
         <v>0</v>
       </c>
       <c r="I793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J793" t="n">
         <v>1</v>
@@ -25848,7 +25860,7 @@
         <v>5</v>
       </c>
       <c r="B794" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C794" t="n">
         <v>0</v>
@@ -25860,19 +25872,19 @@
         <v>1</v>
       </c>
       <c r="F794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
@@ -25880,7 +25892,7 @@
         <v>5</v>
       </c>
       <c r="B795" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C795" t="n">
         <v>9</v>
@@ -25892,7 +25904,7 @@
         <v>1</v>
       </c>
       <c r="F795" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G795" t="n">
         <v>1</v>
@@ -25901,7 +25913,7 @@
         <v>1</v>
       </c>
       <c r="I795" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J795" t="n">
         <v>1</v>
@@ -25912,7 +25924,7 @@
         <v>5</v>
       </c>
       <c r="B796" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C796" t="n">
         <v>-15</v>
@@ -25924,16 +25936,16 @@
         <v>1</v>
       </c>
       <c r="F796" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H796" t="n">
         <v>1</v>
       </c>
       <c r="I796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J796" t="n">
         <v>1</v>
@@ -25944,7 +25956,7 @@
         <v>5</v>
       </c>
       <c r="B797" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C797" t="n">
         <v>-15</v>
@@ -25956,19 +25968,19 @@
         <v>0</v>
       </c>
       <c r="F797" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G797" t="n">
         <v>0</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -25976,7 +25988,7 @@
         <v>5</v>
       </c>
       <c r="B798" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C798" t="n">
         <v>-15</v>
@@ -25988,16 +26000,16 @@
         <v>0</v>
       </c>
       <c r="F798" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G798" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H798" t="n">
         <v>0</v>
       </c>
       <c r="I798" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J798" t="n">
         <v>1</v>
@@ -26008,7 +26020,7 @@
         <v>5</v>
       </c>
       <c r="B799" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C799" t="n">
         <v>0</v>
@@ -26020,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G799" t="n">
         <v>1</v>
@@ -26029,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J799" t="n">
         <v>1</v>
@@ -26040,7 +26052,7 @@
         <v>5</v>
       </c>
       <c r="B800" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C800" t="n">
         <v>0</v>
@@ -26072,7 +26084,7 @@
         <v>5</v>
       </c>
       <c r="B801" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C801" t="n">
         <v>-15</v>
@@ -26084,7 +26096,7 @@
         <v>0</v>
       </c>
       <c r="F801" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G801" t="n">
         <v>1</v>
@@ -26093,7 +26105,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J801" t="n">
         <v>1</v>
@@ -26104,7 +26116,7 @@
         <v>5</v>
       </c>
       <c r="B802" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C802" t="n">
         <v>-15</v>
@@ -26116,7 +26128,7 @@
         <v>0</v>
       </c>
       <c r="F802" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G802" t="n">
         <v>1</v>
@@ -26125,7 +26137,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J802" t="n">
         <v>1</v>
@@ -26136,7 +26148,7 @@
         <v>5</v>
       </c>
       <c r="B803" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C803" t="n">
         <v>0</v>
@@ -26148,19 +26160,19 @@
         <v>1</v>
       </c>
       <c r="F803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I803" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J803" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -26168,7 +26180,7 @@
         <v>5</v>
       </c>
       <c r="B804" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C804" t="n">
         <v>9</v>
@@ -26180,19 +26192,19 @@
         <v>0</v>
       </c>
       <c r="F804" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G804" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J804" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -26200,7 +26212,7 @@
         <v>5</v>
       </c>
       <c r="B805" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C805" t="n">
         <v>0</v>
@@ -26212,7 +26224,7 @@
         <v>1</v>
       </c>
       <c r="F805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G805" t="n">
         <v>1</v>
@@ -26221,7 +26233,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J805" t="n">
         <v>0</v>
@@ -26232,7 +26244,7 @@
         <v>5</v>
       </c>
       <c r="B806" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C806" t="n">
         <v>9</v>
@@ -26244,19 +26256,19 @@
         <v>1</v>
       </c>
       <c r="F806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G806" t="n">
         <v>1</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807">
@@ -26264,7 +26276,7 @@
         <v>5</v>
       </c>
       <c r="B807" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C807" t="n">
         <v>0</v>
@@ -26276,7 +26288,7 @@
         <v>1</v>
       </c>
       <c r="F807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G807" t="n">
         <v>1</v>
@@ -26285,7 +26297,7 @@
         <v>1</v>
       </c>
       <c r="I807" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J807" t="n">
         <v>1</v>
@@ -26296,7 +26308,7 @@
         <v>5</v>
       </c>
       <c r="B808" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C808" t="n">
         <v>0</v>
@@ -26311,16 +26323,16 @@
         <v>0</v>
       </c>
       <c r="G808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808" t="n">
         <v>1</v>
       </c>
       <c r="J808" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809">
@@ -26328,7 +26340,7 @@
         <v>5</v>
       </c>
       <c r="B809" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C809" t="n">
         <v>-15</v>
@@ -26340,19 +26352,19 @@
         <v>1</v>
       </c>
       <c r="F809" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -26360,7 +26372,7 @@
         <v>5</v>
       </c>
       <c r="B810" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C810" t="n">
         <v>-15</v>
@@ -26372,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="F810" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -26392,7 +26404,7 @@
         <v>5</v>
       </c>
       <c r="B811" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C811" t="n">
         <v>0</v>
@@ -26404,19 +26416,19 @@
         <v>1</v>
       </c>
       <c r="F811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -26424,7 +26436,7 @@
         <v>5</v>
       </c>
       <c r="B812" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C812" t="n">
         <v>0</v>
@@ -26456,7 +26468,7 @@
         <v>5</v>
       </c>
       <c r="B813" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C813" t="n">
         <v>0</v>
@@ -26474,13 +26486,13 @@
         <v>1</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I813" t="n">
         <v>1</v>
       </c>
       <c r="J813" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814">
@@ -26488,7 +26500,7 @@
         <v>5</v>
       </c>
       <c r="B814" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C814" t="n">
         <v>9</v>
@@ -26500,19 +26512,19 @@
         <v>1</v>
       </c>
       <c r="F814" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G814" t="n">
         <v>1</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J814" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815">
@@ -26520,7 +26532,7 @@
         <v>5</v>
       </c>
       <c r="B815" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C815" t="n">
         <v>0</v>
@@ -26532,7 +26544,7 @@
         <v>1</v>
       </c>
       <c r="F815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G815" t="n">
         <v>1</v>
@@ -26541,7 +26553,7 @@
         <v>1</v>
       </c>
       <c r="I815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J815" t="n">
         <v>1</v>
@@ -26552,7 +26564,7 @@
         <v>5</v>
       </c>
       <c r="B816" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C816" t="n">
         <v>9</v>
@@ -26564,19 +26576,19 @@
         <v>0</v>
       </c>
       <c r="F816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -26584,7 +26596,7 @@
         <v>5</v>
       </c>
       <c r="B817" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C817" t="n">
         <v>0</v>
@@ -26596,16 +26608,16 @@
         <v>0</v>
       </c>
       <c r="F817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G817" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H817" t="n">
         <v>0</v>
       </c>
       <c r="I817" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J817" t="n">
         <v>1</v>
@@ -26616,7 +26628,7 @@
         <v>5</v>
       </c>
       <c r="B818" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C818" t="n">
         <v>-15</v>
@@ -26628,16 +26640,16 @@
         <v>1</v>
       </c>
       <c r="F818" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H818" t="n">
         <v>0</v>
       </c>
       <c r="I818" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J818" t="n">
         <v>0</v>
@@ -26648,7 +26660,7 @@
         <v>5</v>
       </c>
       <c r="B819" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C819" t="n">
         <v>0</v>
@@ -26660,7 +26672,7 @@
         <v>0</v>
       </c>
       <c r="F819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G819" t="n">
         <v>0</v>
@@ -26669,7 +26681,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J819" t="n">
         <v>1</v>
@@ -26680,7 +26692,7 @@
         <v>5</v>
       </c>
       <c r="B820" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C820" t="n">
         <v>9</v>
@@ -26692,19 +26704,19 @@
         <v>1</v>
       </c>
       <c r="F820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G820" t="n">
         <v>0</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -26712,7 +26724,7 @@
         <v>5</v>
       </c>
       <c r="B821" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C821" t="n">
         <v>9</v>
@@ -26727,7 +26739,7 @@
         <v>1</v>
       </c>
       <c r="G821" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H821" t="n">
         <v>1</v>
@@ -26744,7 +26756,7 @@
         <v>5</v>
       </c>
       <c r="B822" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C822" t="n">
         <v>-15</v>
@@ -26756,16 +26768,16 @@
         <v>1</v>
       </c>
       <c r="F822" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H822" t="n">
         <v>1</v>
       </c>
       <c r="I822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J822" t="n">
         <v>1</v>
@@ -26776,7 +26788,7 @@
         <v>5</v>
       </c>
       <c r="B823" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C823" t="n">
         <v>9</v>
@@ -26791,7 +26803,7 @@
         <v>1</v>
       </c>
       <c r="G823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H823" t="n">
         <v>1</v>
@@ -26808,7 +26820,7 @@
         <v>5</v>
       </c>
       <c r="B824" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C824" t="n">
         <v>0</v>
@@ -26820,19 +26832,19 @@
         <v>0</v>
       </c>
       <c r="F824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -26840,7 +26852,7 @@
         <v>5</v>
       </c>
       <c r="B825" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C825" t="n">
         <v>-15</v>
@@ -26852,19 +26864,19 @@
         <v>1</v>
       </c>
       <c r="F825" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G825" t="n">
         <v>1</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I825" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J825" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -26872,7 +26884,7 @@
         <v>5</v>
       </c>
       <c r="B826" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C826" t="n">
         <v>0</v>
@@ -26884,7 +26896,7 @@
         <v>1</v>
       </c>
       <c r="F826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G826" t="n">
         <v>1</v>
@@ -26893,7 +26905,7 @@
         <v>1</v>
       </c>
       <c r="I826" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J826" t="n">
         <v>1</v>
@@ -26904,7 +26916,7 @@
         <v>5</v>
       </c>
       <c r="B827" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C827" t="n">
         <v>9</v>
@@ -26916,19 +26928,19 @@
         <v>0</v>
       </c>
       <c r="F827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G827" t="n">
         <v>1</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -26936,7 +26948,7 @@
         <v>5</v>
       </c>
       <c r="B828" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C828" t="n">
         <v>9</v>
@@ -26954,13 +26966,13 @@
         <v>1</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I828" t="n">
         <v>1</v>
       </c>
       <c r="J828" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -26968,7 +26980,7 @@
         <v>5</v>
       </c>
       <c r="B829" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C829" t="n">
         <v>0</v>
@@ -26980,19 +26992,19 @@
         <v>1</v>
       </c>
       <c r="F829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G829" t="n">
         <v>1</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -27000,7 +27012,7 @@
         <v>5</v>
       </c>
       <c r="B830" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C830" t="n">
         <v>0</v>
@@ -27018,13 +27030,13 @@
         <v>1</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I830" t="n">
         <v>1</v>
       </c>
       <c r="J830" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831">
@@ -27032,7 +27044,7 @@
         <v>5</v>
       </c>
       <c r="B831" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C831" t="n">
         <v>9</v>
@@ -27044,19 +27056,19 @@
         <v>0</v>
       </c>
       <c r="F831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G831" t="n">
         <v>1</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
@@ -27064,7 +27076,7 @@
         <v>5</v>
       </c>
       <c r="B832" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C832" t="n">
         <v>-15</v>
@@ -27076,19 +27088,19 @@
         <v>1</v>
       </c>
       <c r="F832" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -27096,7 +27108,7 @@
         <v>5</v>
       </c>
       <c r="B833" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C833" t="n">
         <v>9</v>
@@ -27128,7 +27140,7 @@
         <v>5</v>
       </c>
       <c r="B834" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C834" t="n">
         <v>9</v>
@@ -27143,16 +27155,16 @@
         <v>1</v>
       </c>
       <c r="G834" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="n">
         <v>1</v>
       </c>
       <c r="J834" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -27160,7 +27172,7 @@
         <v>5</v>
       </c>
       <c r="B835" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C835" t="n">
         <v>9</v>
@@ -27192,7 +27204,7 @@
         <v>5</v>
       </c>
       <c r="B836" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C836" t="n">
         <v>0</v>
@@ -27204,7 +27216,7 @@
         <v>0</v>
       </c>
       <c r="F836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G836" t="n">
         <v>1</v>
@@ -27213,7 +27225,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J836" t="n">
         <v>1</v>
@@ -27224,7 +27236,7 @@
         <v>5</v>
       </c>
       <c r="B837" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C837" t="n">
         <v>-15</v>
@@ -27236,16 +27248,16 @@
         <v>0</v>
       </c>
       <c r="F837" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H837" t="n">
         <v>0</v>
       </c>
       <c r="I837" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J837" t="n">
         <v>1</v>
@@ -27256,7 +27268,7 @@
         <v>5</v>
       </c>
       <c r="B838" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C838" t="n">
         <v>-15</v>
@@ -27268,16 +27280,16 @@
         <v>0</v>
       </c>
       <c r="F838" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G838" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H838" t="n">
         <v>0</v>
       </c>
       <c r="I838" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J838" t="n">
         <v>1</v>
@@ -27288,7 +27300,7 @@
         <v>5</v>
       </c>
       <c r="B839" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C839" t="n">
         <v>9</v>
@@ -27306,13 +27318,13 @@
         <v>1</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>1</v>
       </c>
       <c r="J839" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -27320,7 +27332,7 @@
         <v>5</v>
       </c>
       <c r="B840" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C840" t="n">
         <v>-15</v>
@@ -27332,7 +27344,7 @@
         <v>1</v>
       </c>
       <c r="F840" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G840" t="n">
         <v>1</v>
@@ -27341,7 +27353,7 @@
         <v>1</v>
       </c>
       <c r="I840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J840" t="n">
         <v>1</v>
@@ -27352,7 +27364,7 @@
         <v>5</v>
       </c>
       <c r="B841" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C841" t="n">
         <v>-15</v>
@@ -27364,16 +27376,16 @@
         <v>1</v>
       </c>
       <c r="F841" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H841" t="n">
         <v>1</v>
       </c>
       <c r="I841" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J841" t="n">
         <v>1</v>
@@ -27384,7 +27396,7 @@
         <v>5</v>
       </c>
       <c r="B842" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C842" t="n">
         <v>-15</v>
@@ -27396,19 +27408,19 @@
         <v>0</v>
       </c>
       <c r="F842" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G842" t="n">
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J842" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843">
@@ -27416,7 +27428,7 @@
         <v>5</v>
       </c>
       <c r="B843" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C843" t="n">
         <v>9</v>
@@ -27431,7 +27443,7 @@
         <v>1</v>
       </c>
       <c r="G843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H843" t="n">
         <v>0</v>
@@ -27448,7 +27460,7 @@
         <v>5</v>
       </c>
       <c r="B844" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C844" t="n">
         <v>0</v>
@@ -27460,16 +27472,16 @@
         <v>0</v>
       </c>
       <c r="F844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H844" t="n">
         <v>0</v>
       </c>
       <c r="I844" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J844" t="n">
         <v>1</v>
@@ -27480,7 +27492,7 @@
         <v>5</v>
       </c>
       <c r="B845" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C845" t="n">
         <v>0</v>
@@ -27495,7 +27507,7 @@
         <v>0</v>
       </c>
       <c r="G845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H845" t="n">
         <v>0</v>
@@ -27512,7 +27524,7 @@
         <v>5</v>
       </c>
       <c r="B846" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C846" t="n">
         <v>-15</v>
@@ -27524,7 +27536,7 @@
         <v>0</v>
       </c>
       <c r="F846" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -27533,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J846" t="n">
         <v>1</v>
@@ -27544,7 +27556,7 @@
         <v>5</v>
       </c>
       <c r="B847" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C847" t="n">
         <v>9</v>
@@ -27576,7 +27588,7 @@
         <v>5</v>
       </c>
       <c r="B848" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C848" t="n">
         <v>9</v>
@@ -27608,7 +27620,7 @@
         <v>5</v>
       </c>
       <c r="B849" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C849" t="n">
         <v>9</v>
@@ -27623,16 +27635,16 @@
         <v>1</v>
       </c>
       <c r="G849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>1</v>
       </c>
       <c r="J849" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850">
@@ -27640,7 +27652,7 @@
         <v>5</v>
       </c>
       <c r="B850" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C850" t="n">
         <v>9</v>
@@ -27672,7 +27684,7 @@
         <v>5</v>
       </c>
       <c r="B851" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C851" t="n">
         <v>-15</v>
@@ -27684,19 +27696,19 @@
         <v>0</v>
       </c>
       <c r="F851" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G851" t="n">
         <v>0</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -27704,7 +27716,7 @@
         <v>5</v>
       </c>
       <c r="B852" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C852" t="n">
         <v>-15</v>
@@ -27716,19 +27728,19 @@
         <v>1</v>
       </c>
       <c r="F852" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G852" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J852" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -27736,7 +27748,7 @@
         <v>5</v>
       </c>
       <c r="B853" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C853" t="n">
         <v>9</v>
@@ -27768,7 +27780,7 @@
         <v>5</v>
       </c>
       <c r="B854" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C854" t="n">
         <v>9</v>
@@ -27783,7 +27795,7 @@
         <v>1</v>
       </c>
       <c r="G854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H854" t="n">
         <v>1</v>
@@ -27800,7 +27812,7 @@
         <v>5</v>
       </c>
       <c r="B855" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C855" t="n">
         <v>0</v>
@@ -27812,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="F855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -27832,7 +27844,7 @@
         <v>5</v>
       </c>
       <c r="B856" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C856" t="n">
         <v>9</v>
@@ -27844,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="F856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H856" t="n">
         <v>0</v>
       </c>
       <c r="I856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J856" t="n">
         <v>1</v>
@@ -27864,7 +27876,7 @@
         <v>5</v>
       </c>
       <c r="B857" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C857" t="n">
         <v>-15</v>
@@ -27876,16 +27888,16 @@
         <v>0</v>
       </c>
       <c r="F857" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H857" t="n">
         <v>0</v>
       </c>
       <c r="I857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J857" t="n">
         <v>1</v>
@@ -27896,7 +27908,7 @@
         <v>5</v>
       </c>
       <c r="B858" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C858" t="n">
         <v>9</v>
@@ -27914,13 +27926,13 @@
         <v>1</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>1</v>
       </c>
       <c r="J858" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859">
@@ -27928,7 +27940,7 @@
         <v>5</v>
       </c>
       <c r="B859" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C859" t="n">
         <v>9</v>
@@ -27946,13 +27958,13 @@
         <v>1</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I859" t="n">
         <v>1</v>
       </c>
       <c r="J859" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860">
@@ -27960,7 +27972,7 @@
         <v>5</v>
       </c>
       <c r="B860" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C860" t="n">
         <v>0</v>
@@ -27972,19 +27984,19 @@
         <v>1</v>
       </c>
       <c r="F860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I860" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J860" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861">
@@ -27992,7 +28004,7 @@
         <v>5</v>
       </c>
       <c r="B861" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C861" t="n">
         <v>0</v>
@@ -28007,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="G861" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H861" t="n">
         <v>1</v>
@@ -28024,7 +28036,7 @@
         <v>5</v>
       </c>
       <c r="B862" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C862" t="n">
         <v>-15</v>
@@ -28036,7 +28048,7 @@
         <v>1</v>
       </c>
       <c r="F862" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -28045,7 +28057,7 @@
         <v>1</v>
       </c>
       <c r="I862" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J862" t="n">
         <v>1</v>
@@ -28056,7 +28068,7 @@
         <v>5</v>
       </c>
       <c r="B863" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C863" t="n">
         <v>-15</v>
@@ -28068,16 +28080,16 @@
         <v>1</v>
       </c>
       <c r="F863" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H863" t="n">
         <v>1</v>
       </c>
       <c r="I863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J863" t="n">
         <v>1</v>
@@ -28088,7 +28100,7 @@
         <v>5</v>
       </c>
       <c r="B864" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C864" t="n">
         <v>9</v>
@@ -28103,7 +28115,7 @@
         <v>1</v>
       </c>
       <c r="G864" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H864" t="n">
         <v>1</v>
@@ -28120,7 +28132,7 @@
         <v>5</v>
       </c>
       <c r="B865" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C865" t="n">
         <v>-15</v>
@@ -28132,16 +28144,16 @@
         <v>1</v>
       </c>
       <c r="F865" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H865" t="n">
         <v>1</v>
       </c>
       <c r="I865" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J865" t="n">
         <v>1</v>
@@ -28152,7 +28164,7 @@
         <v>5</v>
       </c>
       <c r="B866" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C866" t="n">
         <v>-15</v>
@@ -28164,16 +28176,16 @@
         <v>1</v>
       </c>
       <c r="F866" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G866" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H866" t="n">
         <v>1</v>
       </c>
       <c r="I866" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J866" t="n">
         <v>1</v>
@@ -28184,7 +28196,7 @@
         <v>5</v>
       </c>
       <c r="B867" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C867" t="n">
         <v>9</v>
@@ -28216,7 +28228,7 @@
         <v>5</v>
       </c>
       <c r="B868" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C868" t="n">
         <v>-15</v>
@@ -28228,19 +28240,19 @@
         <v>0</v>
       </c>
       <c r="F868" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G868" t="n">
         <v>1</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I868" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J868" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869">
@@ -28248,7 +28260,7 @@
         <v>5</v>
       </c>
       <c r="B869" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C869" t="n">
         <v>0</v>
@@ -28260,19 +28272,19 @@
         <v>1</v>
       </c>
       <c r="F869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I869" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J869" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870">
@@ -28280,7 +28292,7 @@
         <v>5</v>
       </c>
       <c r="B870" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C870" t="n">
         <v>-15</v>
@@ -28292,7 +28304,7 @@
         <v>1</v>
       </c>
       <c r="F870" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -28301,7 +28313,7 @@
         <v>1</v>
       </c>
       <c r="I870" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J870" t="n">
         <v>1</v>
@@ -28312,7 +28324,7 @@
         <v>5</v>
       </c>
       <c r="B871" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C871" t="n">
         <v>0</v>
@@ -28324,7 +28336,7 @@
         <v>1</v>
       </c>
       <c r="F871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G871" t="n">
         <v>1</v>
@@ -28333,7 +28345,7 @@
         <v>1</v>
       </c>
       <c r="I871" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J871" t="n">
         <v>1</v>
@@ -28344,7 +28356,7 @@
         <v>5</v>
       </c>
       <c r="B872" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C872" t="n">
         <v>0</v>
@@ -28376,7 +28388,7 @@
         <v>5</v>
       </c>
       <c r="B873" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C873" t="n">
         <v>9</v>
@@ -28388,7 +28400,7 @@
         <v>1</v>
       </c>
       <c r="F873" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -28397,7 +28409,7 @@
         <v>1</v>
       </c>
       <c r="I873" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J873" t="n">
         <v>1</v>
@@ -28408,7 +28420,7 @@
         <v>5</v>
       </c>
       <c r="B874" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C874" t="n">
         <v>-15</v>
@@ -28420,7 +28432,7 @@
         <v>1</v>
       </c>
       <c r="F874" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G874" t="n">
         <v>1</v>
@@ -28429,7 +28441,7 @@
         <v>1</v>
       </c>
       <c r="I874" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J874" t="n">
         <v>1</v>
@@ -28440,7 +28452,7 @@
         <v>5</v>
       </c>
       <c r="B875" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C875" t="n">
         <v>-15</v>
@@ -28452,19 +28464,19 @@
         <v>0</v>
       </c>
       <c r="F875" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I875" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J875" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876">
@@ -28472,7 +28484,7 @@
         <v>5</v>
       </c>
       <c r="B876" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C876" t="n">
         <v>0</v>
@@ -28484,16 +28496,16 @@
         <v>0</v>
       </c>
       <c r="F876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H876" t="n">
         <v>0</v>
       </c>
       <c r="I876" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J876" t="n">
         <v>1</v>
@@ -28504,7 +28516,7 @@
         <v>5</v>
       </c>
       <c r="B877" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C877" t="n">
         <v>0</v>
@@ -28519,7 +28531,7 @@
         <v>0</v>
       </c>
       <c r="G877" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H877" t="n">
         <v>0</v>
@@ -28536,7 +28548,7 @@
         <v>5</v>
       </c>
       <c r="B878" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C878" t="n">
         <v>-15</v>
@@ -28548,19 +28560,19 @@
         <v>1</v>
       </c>
       <c r="F878" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G878" t="n">
         <v>1</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I878" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J878" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879">
@@ -28568,7 +28580,7 @@
         <v>5</v>
       </c>
       <c r="B879" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C879" t="n">
         <v>0</v>
@@ -28580,19 +28592,19 @@
         <v>0</v>
       </c>
       <c r="F879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G879" t="n">
         <v>1</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -28600,7 +28612,7 @@
         <v>5</v>
       </c>
       <c r="B880" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C880" t="n">
         <v>9</v>
@@ -28612,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="F880" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G880" t="n">
         <v>1</v>
@@ -28621,7 +28633,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J880" t="n">
         <v>1</v>
@@ -28632,7 +28644,7 @@
         <v>5</v>
       </c>
       <c r="B881" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C881" t="n">
         <v>0</v>
@@ -28644,16 +28656,16 @@
         <v>0</v>
       </c>
       <c r="F881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H881" t="n">
         <v>0</v>
       </c>
       <c r="I881" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J881" t="n">
         <v>1</v>
@@ -28664,7 +28676,7 @@
         <v>5</v>
       </c>
       <c r="B882" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C882" t="n">
         <v>9</v>
@@ -28676,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="F882" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G882" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H882" t="n">
         <v>0</v>
       </c>
       <c r="I882" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J882" t="n">
         <v>1</v>
@@ -28696,7 +28708,7 @@
         <v>5</v>
       </c>
       <c r="B883" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C883" t="n">
         <v>-15</v>
@@ -28708,7 +28720,7 @@
         <v>1</v>
       </c>
       <c r="F883" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G883" t="n">
         <v>1</v>
@@ -28717,7 +28729,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J883" t="n">
         <v>0</v>
@@ -28728,7 +28740,7 @@
         <v>5</v>
       </c>
       <c r="B884" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C884" t="n">
         <v>9</v>
@@ -28746,13 +28758,13 @@
         <v>1</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I884" t="n">
         <v>1</v>
       </c>
       <c r="J884" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885">
@@ -28760,7 +28772,7 @@
         <v>5</v>
       </c>
       <c r="B885" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C885" t="n">
         <v>-15</v>
@@ -28772,19 +28784,19 @@
         <v>0</v>
       </c>
       <c r="F885" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G885" t="n">
         <v>1</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I885" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J885" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -28792,7 +28804,7 @@
         <v>5</v>
       </c>
       <c r="B886" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C886" t="n">
         <v>9</v>
@@ -28810,13 +28822,13 @@
         <v>1</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I886" t="n">
         <v>1</v>
       </c>
       <c r="J886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -28824,7 +28836,7 @@
         <v>5</v>
       </c>
       <c r="B887" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C887" t="n">
         <v>-15</v>
@@ -28836,7 +28848,7 @@
         <v>1</v>
       </c>
       <c r="F887" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G887" t="n">
         <v>1</v>
@@ -28845,7 +28857,7 @@
         <v>1</v>
       </c>
       <c r="I887" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J887" t="n">
         <v>1</v>
@@ -28856,7 +28868,7 @@
         <v>5</v>
       </c>
       <c r="B888" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C888" t="n">
         <v>9</v>
@@ -28888,7 +28900,7 @@
         <v>5</v>
       </c>
       <c r="B889" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C889" t="n">
         <v>-15</v>
@@ -28900,16 +28912,16 @@
         <v>1</v>
       </c>
       <c r="F889" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H889" t="n">
         <v>1</v>
       </c>
       <c r="I889" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J889" t="n">
         <v>1</v>
@@ -28920,7 +28932,7 @@
         <v>5</v>
       </c>
       <c r="B890" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C890" t="n">
         <v>-15</v>
@@ -28932,16 +28944,16 @@
         <v>1</v>
       </c>
       <c r="F890" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G890" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H890" t="n">
         <v>1</v>
       </c>
       <c r="I890" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J890" t="n">
         <v>1</v>
@@ -28952,7 +28964,7 @@
         <v>5</v>
       </c>
       <c r="B891" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C891" t="n">
         <v>0</v>
@@ -28964,7 +28976,7 @@
         <v>1</v>
       </c>
       <c r="F891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G891" t="n">
         <v>1</v>
@@ -28973,7 +28985,7 @@
         <v>1</v>
       </c>
       <c r="I891" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J891" t="n">
         <v>1</v>
@@ -28984,7 +28996,7 @@
         <v>5</v>
       </c>
       <c r="B892" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C892" t="n">
         <v>9</v>
@@ -28996,19 +29008,19 @@
         <v>0</v>
       </c>
       <c r="F892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G892" t="n">
         <v>1</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893">
@@ -29016,7 +29028,7 @@
         <v>5</v>
       </c>
       <c r="B893" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C893" t="n">
         <v>0</v>
@@ -29028,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="F893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G893" t="n">
         <v>1</v>
@@ -29037,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J893" t="n">
         <v>1</v>
@@ -29048,7 +29060,7 @@
         <v>5</v>
       </c>
       <c r="B894" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C894" t="n">
         <v>0</v>
@@ -29080,7 +29092,7 @@
         <v>5</v>
       </c>
       <c r="B895" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C895" t="n">
         <v>-15</v>
@@ -29092,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="F895" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G895" t="n">
         <v>1</v>
@@ -29101,7 +29113,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J895" t="n">
         <v>1</v>
@@ -29112,7 +29124,7 @@
         <v>5</v>
       </c>
       <c r="B896" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C896" t="n">
         <v>9</v>
@@ -29144,7 +29156,7 @@
         <v>5</v>
       </c>
       <c r="B897" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C897" t="n">
         <v>9</v>
@@ -29162,13 +29174,13 @@
         <v>1</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I897" t="n">
         <v>1</v>
       </c>
       <c r="J897" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898">
@@ -29176,7 +29188,7 @@
         <v>5</v>
       </c>
       <c r="B898" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C898" t="n">
         <v>-15</v>
@@ -29188,7 +29200,7 @@
         <v>1</v>
       </c>
       <c r="F898" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G898" t="n">
         <v>1</v>
@@ -29197,7 +29209,7 @@
         <v>1</v>
       </c>
       <c r="I898" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J898" t="n">
         <v>1</v>
@@ -29208,7 +29220,7 @@
         <v>5</v>
       </c>
       <c r="B899" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C899" t="n">
         <v>-15</v>
@@ -29220,7 +29232,7 @@
         <v>1</v>
       </c>
       <c r="F899" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G899" t="n">
         <v>1</v>
@@ -29229,7 +29241,7 @@
         <v>1</v>
       </c>
       <c r="I899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J899" t="n">
         <v>1</v>
@@ -29240,7 +29252,7 @@
         <v>5</v>
       </c>
       <c r="B900" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C900" t="n">
         <v>9</v>
@@ -29258,13 +29270,13 @@
         <v>1</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I900" t="n">
         <v>1</v>
       </c>
       <c r="J900" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -29272,7 +29284,7 @@
         <v>5</v>
       </c>
       <c r="B901" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C901" t="n">
         <v>9</v>
@@ -29297,29 +29309,6 @@
       </c>
       <c r="J901" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="n">
-        <v>5</v>
-      </c>
-      <c r="B902" t="n">
-        <v>180</v>
-      </c>
-      <c r="F902" t="n">
-        <v>1</v>
-      </c>
-      <c r="G902" t="n">
-        <v>1</v>
-      </c>
-      <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="n">
-        <v>0</v>
-      </c>
-      <c r="J902" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -29379,10 +29368,10 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1072903353367422</v>
+        <v>0.0900918712501222</v>
       </c>
     </row>
     <row r="3">
@@ -29396,10 +29385,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04218003305174259</v>
+        <v>0.0534667007954521</v>
       </c>
     </row>
     <row r="4">
@@ -29413,10 +29402,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03768738858261601</v>
+        <v>0.05249310253140095</v>
       </c>
     </row>
     <row r="5">
@@ -29430,10 +29419,10 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06299407883487119</v>
+        <v>0.05588506945068097</v>
       </c>
     </row>
     <row r="6">
@@ -29447,10 +29436,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06405126152203486</v>
+        <v>0.05913682829884975</v>
       </c>
     </row>
     <row r="7">
@@ -29464,10 +29453,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.875</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05295740910852021</v>
+        <v>0.05354479188959758</v>
       </c>
     </row>
     <row r="8">
@@ -29481,10 +29470,10 @@
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08208556498579522</v>
+        <v>0.07696367820108109</v>
       </c>
     </row>
     <row r="9">
@@ -29498,10 +29487,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.813953488372093</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06004625342957236</v>
+        <v>0.05436067275445351</v>
       </c>
     </row>
     <row r="10">
@@ -29515,10 +29504,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.88</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04290254662948545</v>
+        <v>0.04642307659791976</v>
       </c>
     </row>
     <row r="11">
@@ -29532,10 +29521,10 @@
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09829463743659811</v>
+        <v>0.09123958466923195</v>
       </c>
     </row>
     <row r="12">
@@ -29549,10 +29538,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.868421052631579</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05557219020090342</v>
+        <v>0.05249310253140094</v>
       </c>
     </row>
     <row r="13">
@@ -29566,10 +29555,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.972972972972973</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.05249310253140095</v>
       </c>
     </row>
     <row r="14">
@@ -29583,10 +29572,10 @@
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06834794743374141</v>
+        <v>0.06004625342957236</v>
       </c>
     </row>
     <row r="15">
@@ -29600,10 +29589,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04322703745761663</v>
+        <v>0.04290254662948545</v>
       </c>
     </row>
     <row r="16">
@@ -29617,10 +29606,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03980745977252777</v>
+        <v>0.04946336973228636</v>
       </c>
     </row>
     <row r="17">
@@ -29634,10 +29623,10 @@
         <v>0.1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.475</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07996393417804533</v>
+        <v>0.07491109582924914</v>
       </c>
     </row>
     <row r="18">
@@ -29651,10 +29640,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9069767441860465</v>
+        <v>0.9</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0448197261236945</v>
+        <v>0.04285714285714286</v>
       </c>
     </row>
     <row r="19">
@@ -29668,10 +29657,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04737793696791343</v>
+        <v>0.05050762722761054</v>
       </c>
     </row>
   </sheetData>
